--- a/Assets/06.Table/TowerTable4.xlsx
+++ b/Assets/06.Table/TowerTable4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9024387A-5D4E-491D-A07A-E609A31D714E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00002DE0-E200-4D2D-98C9-272D8306F67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -794,11 +794,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J57" sqref="J57"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2194,7 +2194,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="3">
-        <f t="shared" ref="F43:F61" si="2">F42*4</f>
+        <f t="shared" ref="F43:F63" si="2">F42*4</f>
         <v>2.5603626482312146E+83</v>
       </c>
       <c r="G43" s="6">
@@ -2491,7 +2491,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="3">
-        <f t="shared" ref="F52:F60" si="4">F51*4.5</f>
+        <f t="shared" ref="F52:F64" si="4">F51*4.5</f>
         <v>1.3606816861386447E+89</v>
       </c>
       <c r="G52" s="6">
@@ -2804,9 +2804,75 @@
         <v>5940</v>
       </c>
     </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="6">
+        <v>60</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="6">
+        <v>9001</v>
+      </c>
+      <c r="D62" s="6">
+        <v>2725</v>
+      </c>
+      <c r="E62" s="6">
+        <v>1</v>
+      </c>
+      <c r="F62" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5711005723136271E+95</v>
+      </c>
+      <c r="G62" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H62" s="6">
+        <v>8</v>
+      </c>
+      <c r="I62" s="6">
+        <v>0</v>
+      </c>
+      <c r="J62" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="6">
+        <v>61</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="6">
+        <v>9001</v>
+      </c>
+      <c r="D63" s="6">
+        <v>2735</v>
+      </c>
+      <c r="E63" s="6">
+        <v>1</v>
+      </c>
+      <c r="F63" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0284402289254508E+96</v>
+      </c>
+      <c r="G63" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H63" s="6">
+        <v>8</v>
+      </c>
+      <c r="I63" s="6">
+        <v>0</v>
+      </c>
+      <c r="J63" s="6">
+        <v>6060</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J3 C7:C8 A4:C4 E4:J8 A5:A31 B20:B31 A32:B61 D4:D61">
+  <conditionalFormatting sqref="A2:J3 C7:C8 A4:C4 E4:J8 A5:A31 B20:B31 A32:B63 D4:D63">
     <cfRule type="expression" dxfId="12" priority="65">
       <formula>$C2=5</formula>
     </cfRule>
@@ -2841,12 +2907,12 @@
       <formula>$C12=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13:C14 C22 G17:J18 G21:J22 G25:J26 G29:J30 E29:E30 E25:E26 E21:E22 E17:E18 E13:J14 C18:C19 C24 C26 C28 C30 E32:E33 C33 G32:J33 C36:C37 C40:C41 G35:J38 G40:J41 E35:E38 E40:E41 C43:C44 C50:C51 C47:C48 G43:J45 G47:J48 E43:E45 E47:E48 C53 C55 C57 C59 C61 G50:J61 E50:E61">
+  <conditionalFormatting sqref="C13:C14 C22 G17:J18 G21:J22 G25:J26 G29:J30 E29:E30 E25:E26 E21:E22 E17:E18 E13:J14 C18:C19 C24 C26 C28 C30 E32:E33 C33 G32:J33 C36:C37 C40:C41 G35:J38 G40:J41 E35:E38 E40:E41 C43:C44 C50:C51 C47:C48 G43:J45 G47:J48 E43:E45 E47:E48 C53 C55 C57 C59 C61 C63 E50:E63 G50:J63">
     <cfRule type="expression" dxfId="5" priority="9">
       <formula>$C13=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15 C23 G19:J19 G23:J23 G27:J27 G31:J31 E31 E27 E23 E19 E15:J15 C20 C25 C27 C29 E34 C31:C32 G34:J34 C34:C35 C38:C39 C42 G39:J39 G42:J42 E39 E42 C45:C46 C52 C49 G46:J46 G49:J49 E46 E49 C54 C56 C58 C60">
+  <conditionalFormatting sqref="C15 C23 G19:J19 G23:J23 G27:J27 G31:J31 E31 E27 E23 E19 E15:J15 C20 C25 C27 C29 E34 C31:C32 G34:J34 C34:C35 C38:C39 C42 G39:J39 G42:J42 E39 E42 C45:C46 C52 C49 G46:J46 G49:J49 E46 E49 C54 C56 C58 C60 C62">
     <cfRule type="expression" dxfId="4" priority="8">
       <formula>$C15=5</formula>
     </cfRule>
@@ -2861,13 +2927,13 @@
       <formula>$C17=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22:F61">
-    <cfRule type="expression" dxfId="1" priority="4">
+  <conditionalFormatting sqref="F22:F63">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>$C22=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$C31=5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Assets/06.Table/TowerTable4.xlsx
+++ b/Assets/06.Table/TowerTable4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00002DE0-E200-4D2D-98C9-272D8306F67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9E41E2-80BA-4165-921B-8ECFFE55E42F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable4" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -794,11 +794,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K61" sqref="K61"/>
+      <selection pane="bottomLeft" activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2491,7 +2491,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="3">
-        <f t="shared" ref="F52:F64" si="4">F51*4.5</f>
+        <f t="shared" ref="F52:F66" si="4">F51*4.5</f>
         <v>1.3606816861386447E+89</v>
       </c>
       <c r="G52" s="6">
@@ -2870,9 +2870,75 @@
         <v>6060</v>
       </c>
     </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="6">
+        <v>62</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="6">
+        <v>9001</v>
+      </c>
+      <c r="D64" s="6">
+        <v>2745</v>
+      </c>
+      <c r="E64" s="6">
+        <v>1</v>
+      </c>
+      <c r="F64" s="3">
+        <f t="shared" si="4"/>
+        <v>4.6279810301645285E+96</v>
+      </c>
+      <c r="G64" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H64" s="6">
+        <v>8</v>
+      </c>
+      <c r="I64" s="6">
+        <v>0</v>
+      </c>
+      <c r="J64" s="6">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="6">
+        <v>63</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="6">
+        <v>9001</v>
+      </c>
+      <c r="D65" s="6">
+        <v>2755</v>
+      </c>
+      <c r="E65" s="6">
+        <v>1</v>
+      </c>
+      <c r="F65" s="3">
+        <f t="shared" si="4"/>
+        <v>2.0825914635740379E+97</v>
+      </c>
+      <c r="G65" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H65" s="6">
+        <v>8</v>
+      </c>
+      <c r="I65" s="6">
+        <v>0</v>
+      </c>
+      <c r="J65" s="6">
+        <v>6180</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J3 C7:C8 A4:C4 E4:J8 A5:A31 B20:B31 A32:B63 D4:D63">
+  <conditionalFormatting sqref="A2:J3 C7:C8 A4:C4 E4:J8 A5:A31 B20:B31 A32:B65 D4:D65">
     <cfRule type="expression" dxfId="12" priority="65">
       <formula>$C2=5</formula>
     </cfRule>
@@ -2907,12 +2973,12 @@
       <formula>$C12=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13:C14 C22 G17:J18 G21:J22 G25:J26 G29:J30 E29:E30 E25:E26 E21:E22 E17:E18 E13:J14 C18:C19 C24 C26 C28 C30 E32:E33 C33 G32:J33 C36:C37 C40:C41 G35:J38 G40:J41 E35:E38 E40:E41 C43:C44 C50:C51 C47:C48 G43:J45 G47:J48 E43:E45 E47:E48 C53 C55 C57 C59 C61 C63 E50:E63 G50:J63">
+  <conditionalFormatting sqref="C13:C14 C22 G17:J18 G21:J22 G25:J26 G29:J30 E29:E30 E25:E26 E21:E22 E17:E18 E13:J14 C18:C19 C24 C26 C28 C30 E32:E33 C33 G32:J33 C36:C37 C40:C41 G35:J38 G40:J41 E35:E38 E40:E41 C43:C44 C50:C51 C47:C48 G43:J45 G47:J48 E43:E45 E47:E48 C53 C55 C57 C59 C61 C63 C65 E50:E65 G50:J65">
     <cfRule type="expression" dxfId="5" priority="9">
       <formula>$C13=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15 C23 G19:J19 G23:J23 G27:J27 G31:J31 E31 E27 E23 E19 E15:J15 C20 C25 C27 C29 E34 C31:C32 G34:J34 C34:C35 C38:C39 C42 G39:J39 G42:J42 E39 E42 C45:C46 C52 C49 G46:J46 G49:J49 E46 E49 C54 C56 C58 C60 C62">
+  <conditionalFormatting sqref="C15 C23 G19:J19 G23:J23 G27:J27 G31:J31 E31 E27 E23 E19 E15:J15 C20 C25 C27 C29 E34 C31:C32 G34:J34 C34:C35 C38:C39 C42 G39:J39 G42:J42 E39 E42 C45:C46 C52 C49 G46:J46 G49:J49 E46 E49 C54 C56 C58 C60 C62 C64">
     <cfRule type="expression" dxfId="4" priority="8">
       <formula>$C15=5</formula>
     </cfRule>
@@ -2927,7 +2993,7 @@
       <formula>$C17=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22:F63">
+  <conditionalFormatting sqref="F22:F65">
     <cfRule type="expression" dxfId="0" priority="4">
       <formula>$C22=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable4.xlsx
+++ b/Assets/06.Table/TowerTable4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9E41E2-80BA-4165-921B-8ECFFE55E42F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBB4A52-3B70-418D-B49E-B02C6CFB12C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable4" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,205 +197,7 @@
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <b/>
@@ -794,11 +596,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K63" sqref="K63"/>
+      <selection pane="bottomLeft" activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2491,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="3">
-        <f t="shared" ref="F52:F66" si="4">F51*4.5</f>
+        <f t="shared" ref="F52:F67" si="4">F51*4.5</f>
         <v>1.3606816861386447E+89</v>
       </c>
       <c r="G52" s="6">
@@ -2936,70 +2738,91 @@
         <v>6180</v>
       </c>
     </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="6">
+        <v>64</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="6">
+        <v>9001</v>
+      </c>
+      <c r="D66" s="6">
+        <v>2765</v>
+      </c>
+      <c r="E66" s="6">
+        <v>1</v>
+      </c>
+      <c r="F66" s="3">
+        <f t="shared" si="4"/>
+        <v>9.3716615860831713E+97</v>
+      </c>
+      <c r="G66" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H66" s="6">
+        <v>8</v>
+      </c>
+      <c r="I66" s="6">
+        <v>0</v>
+      </c>
+      <c r="J66" s="6">
+        <v>6240</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="6">
+        <v>65</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="6">
+        <v>9001</v>
+      </c>
+      <c r="D67" s="6">
+        <v>2775</v>
+      </c>
+      <c r="E67" s="6">
+        <v>1</v>
+      </c>
+      <c r="F67" s="3">
+        <f t="shared" si="4"/>
+        <v>4.2172477137374273E+98</v>
+      </c>
+      <c r="G67" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H67" s="6">
+        <v>8</v>
+      </c>
+      <c r="I67" s="6">
+        <v>0</v>
+      </c>
+      <c r="J67" s="6">
+        <v>6300</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J3 C7:C8 A4:C4 E4:J8 A5:A31 B20:B31 A32:B65 D4:D65">
-    <cfRule type="expression" dxfId="12" priority="65">
+  <conditionalFormatting sqref="A4:D67 E17:E67 G17:J67 F22:F67">
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>$C4=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:J3">
+    <cfRule type="expression" dxfId="2" priority="65">
       <formula>$C2=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:B16">
-    <cfRule type="expression" dxfId="11" priority="15">
-      <formula>$C5=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="10" priority="14">
-      <formula>$C5=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="9" priority="13">
-      <formula>$C6=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9:C10 E9:J10">
-    <cfRule type="expression" dxfId="8" priority="12">
-      <formula>$C9=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11 E11:J11">
-    <cfRule type="expression" dxfId="7" priority="11">
-      <formula>$C11=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12 E12:J12 C17">
-    <cfRule type="expression" dxfId="6" priority="10">
-      <formula>$C12=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13:C14 C22 G17:J18 G21:J22 G25:J26 G29:J30 E29:E30 E25:E26 E21:E22 E17:E18 E13:J14 C18:C19 C24 C26 C28 C30 E32:E33 C33 G32:J33 C36:C37 C40:C41 G35:J38 G40:J41 E35:E38 E40:E41 C43:C44 C50:C51 C47:C48 G43:J45 G47:J48 E43:E45 E47:E48 C53 C55 C57 C59 C61 C63 C65 E50:E65 G50:J65">
-    <cfRule type="expression" dxfId="5" priority="9">
-      <formula>$C13=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15 C23 G19:J19 G23:J23 G27:J27 G31:J31 E31 E27 E23 E19 E15:J15 C20 C25 C27 C29 E34 C31:C32 G34:J34 C34:C35 C38:C39 C42 G39:J39 G42:J42 E39 E42 C45:C46 C52 C49 G46:J46 G49:J49 E46 E49 C54 C56 C58 C60 C62 C64">
-    <cfRule type="expression" dxfId="4" priority="8">
-      <formula>$C15=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16 G20:J20 G24:J24 G28:J28 E28 E24 E20 E16:J16 C21">
-    <cfRule type="expression" dxfId="3" priority="7">
-      <formula>$C16=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17:B19">
-    <cfRule type="expression" dxfId="2" priority="6">
-      <formula>$C17=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22:F65">
-    <cfRule type="expression" dxfId="0" priority="4">
-      <formula>$C22=5</formula>
+  <conditionalFormatting sqref="E4:J16">
+    <cfRule type="expression" dxfId="1" priority="7">
+      <formula>$C4=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$C31=5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Assets/06.Table/TowerTable4.xlsx
+++ b/Assets/06.Table/TowerTable4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBB4A52-3B70-418D-B49E-B02C6CFB12C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81CDA75-0D0E-4130-BF7B-46176B8B6769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable4" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -596,11 +596,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E72" sqref="E72"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="3">
-        <f t="shared" ref="F52:F67" si="4">F51*4.5</f>
+        <f t="shared" ref="F52:F68" si="4">F51*4.5</f>
         <v>1.3606816861386447E+89</v>
       </c>
       <c r="G52" s="6">
@@ -2804,9 +2804,42 @@
         <v>6300</v>
       </c>
     </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="6">
+        <v>66</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="6">
+        <v>9001</v>
+      </c>
+      <c r="D68" s="6">
+        <v>2785</v>
+      </c>
+      <c r="E68" s="6">
+        <v>1</v>
+      </c>
+      <c r="F68" s="3">
+        <f t="shared" si="4"/>
+        <v>1.8977614711818424E+99</v>
+      </c>
+      <c r="G68" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H68" s="6">
+        <v>8</v>
+      </c>
+      <c r="I68" s="6">
+        <v>0</v>
+      </c>
+      <c r="J68" s="6">
+        <v>6360</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A4:D67 E17:E67 G17:J67 F22:F67">
+  <conditionalFormatting sqref="A4:D68 E17:E68 F22:F68 G17:J68">
     <cfRule type="expression" dxfId="3" priority="6">
       <formula>$C4=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable4.xlsx
+++ b/Assets/06.Table/TowerTable4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81CDA75-0D0E-4130-BF7B-46176B8B6769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713CD85E-789E-40F4-A04D-42A4072ACA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28920" yWindow="0" windowWidth="21600" windowHeight="14940" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable4" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -596,11 +596,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L61" sqref="L61"/>
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A74" sqref="A74:XFD76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="3">
-        <f t="shared" ref="F52:F68" si="4">F51*4.5</f>
+        <f t="shared" ref="F52:F73" si="4">F51*4.5</f>
         <v>1.3606816861386447E+89</v>
       </c>
       <c r="G52" s="6">
@@ -2837,9 +2837,174 @@
         <v>6360</v>
       </c>
     </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="6">
+        <v>67</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="6">
+        <v>9001</v>
+      </c>
+      <c r="D69" s="6">
+        <v>2795</v>
+      </c>
+      <c r="E69" s="6">
+        <v>1</v>
+      </c>
+      <c r="F69" s="3">
+        <f t="shared" si="4"/>
+        <v>8.5399266203182904E+99</v>
+      </c>
+      <c r="G69" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H69" s="6">
+        <v>8</v>
+      </c>
+      <c r="I69" s="6">
+        <v>0</v>
+      </c>
+      <c r="J69" s="6">
+        <v>6420</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="6">
+        <v>68</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="6">
+        <v>9001</v>
+      </c>
+      <c r="D70" s="6">
+        <v>2805</v>
+      </c>
+      <c r="E70" s="6">
+        <v>1</v>
+      </c>
+      <c r="F70" s="3">
+        <f t="shared" si="4"/>
+        <v>3.8429669791432304E+100</v>
+      </c>
+      <c r="G70" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H70" s="6">
+        <v>8</v>
+      </c>
+      <c r="I70" s="6">
+        <v>0</v>
+      </c>
+      <c r="J70" s="6">
+        <v>6480</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="6">
+        <v>69</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="6">
+        <v>9001</v>
+      </c>
+      <c r="D71" s="6">
+        <v>2815</v>
+      </c>
+      <c r="E71" s="6">
+        <v>1</v>
+      </c>
+      <c r="F71" s="3">
+        <f t="shared" si="4"/>
+        <v>1.7293351406144538E+101</v>
+      </c>
+      <c r="G71" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H71" s="6">
+        <v>8</v>
+      </c>
+      <c r="I71" s="6">
+        <v>0</v>
+      </c>
+      <c r="J71" s="6">
+        <v>6540</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" s="6">
+        <v>70</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="6">
+        <v>9001</v>
+      </c>
+      <c r="D72" s="6">
+        <v>2825</v>
+      </c>
+      <c r="E72" s="6">
+        <v>1</v>
+      </c>
+      <c r="F72" s="3">
+        <f t="shared" si="4"/>
+        <v>7.7820081327650429E+101</v>
+      </c>
+      <c r="G72" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H72" s="6">
+        <v>8</v>
+      </c>
+      <c r="I72" s="6">
+        <v>0</v>
+      </c>
+      <c r="J72" s="6">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" s="6">
+        <v>71</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="6">
+        <v>9001</v>
+      </c>
+      <c r="D73" s="6">
+        <v>2835</v>
+      </c>
+      <c r="E73" s="6">
+        <v>1</v>
+      </c>
+      <c r="F73" s="3">
+        <f t="shared" si="4"/>
+        <v>3.5019036597442693E+102</v>
+      </c>
+      <c r="G73" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H73" s="6">
+        <v>8</v>
+      </c>
+      <c r="I73" s="6">
+        <v>0</v>
+      </c>
+      <c r="J73" s="6">
+        <v>6660</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A4:D68 E17:E68 F22:F68 G17:J68">
+  <conditionalFormatting sqref="A4:D73 E17:E73 G17:J73 F22:F73">
     <cfRule type="expression" dxfId="3" priority="6">
       <formula>$C4=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable4.xlsx
+++ b/Assets/06.Table/TowerTable4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713CD85E-789E-40F4-A04D-42A4072ACA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DEBFF3-480D-4565-BF4C-E2481E793D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28920" yWindow="0" windowWidth="21600" windowHeight="14940" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable4" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -596,11 +596,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A74" sqref="A74:XFD76"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="3">
-        <f t="shared" ref="F52:F73" si="4">F51*4.5</f>
+        <f t="shared" ref="F52:F78" si="4">F51*4.5</f>
         <v>1.3606816861386447E+89</v>
       </c>
       <c r="G52" s="6">
@@ -3002,25 +3002,190 @@
         <v>6660</v>
       </c>
     </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" s="6">
+        <v>72</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D74" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E74" s="6">
+        <v>1</v>
+      </c>
+      <c r="F74" s="3">
+        <f t="shared" si="4"/>
+        <v>1.5758566468849213E+103</v>
+      </c>
+      <c r="G74" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H74" s="6">
+        <v>8</v>
+      </c>
+      <c r="I74" s="6">
+        <v>0</v>
+      </c>
+      <c r="J74" s="6">
+        <v>6720</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" s="6">
+        <v>73</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D75" s="6">
+        <v>10100</v>
+      </c>
+      <c r="E75" s="6">
+        <v>1</v>
+      </c>
+      <c r="F75" s="3">
+        <f t="shared" si="4"/>
+        <v>7.0913549109821452E+103</v>
+      </c>
+      <c r="G75" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H75" s="6">
+        <v>8</v>
+      </c>
+      <c r="I75" s="6">
+        <v>0</v>
+      </c>
+      <c r="J75" s="6">
+        <v>6780</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" s="6">
+        <v>74</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D76" s="6">
+        <v>10200</v>
+      </c>
+      <c r="E76" s="6">
+        <v>1</v>
+      </c>
+      <c r="F76" s="3">
+        <f t="shared" si="4"/>
+        <v>3.1911097099419652E+104</v>
+      </c>
+      <c r="G76" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H76" s="6">
+        <v>8</v>
+      </c>
+      <c r="I76" s="6">
+        <v>0</v>
+      </c>
+      <c r="J76" s="6">
+        <v>6840</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" s="6">
+        <v>75</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D77" s="6">
+        <v>10300</v>
+      </c>
+      <c r="E77" s="6">
+        <v>1</v>
+      </c>
+      <c r="F77" s="3">
+        <f t="shared" si="4"/>
+        <v>1.4359993694738843E+105</v>
+      </c>
+      <c r="G77" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H77" s="6">
+        <v>8</v>
+      </c>
+      <c r="I77" s="6">
+        <v>0</v>
+      </c>
+      <c r="J77" s="6">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" s="6">
+        <v>76</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D78" s="6">
+        <v>10400</v>
+      </c>
+      <c r="E78" s="6">
+        <v>1</v>
+      </c>
+      <c r="F78" s="3">
+        <f t="shared" si="4"/>
+        <v>6.4619971626324794E+105</v>
+      </c>
+      <c r="G78" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H78" s="6">
+        <v>8</v>
+      </c>
+      <c r="I78" s="6">
+        <v>0</v>
+      </c>
+      <c r="J78" s="6">
+        <v>6960</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A4:D73 E17:E73 G17:J73 F22:F73">
-    <cfRule type="expression" dxfId="3" priority="6">
+  <conditionalFormatting sqref="E17:E78 G17:J78 F22:F78 A4:D78">
+    <cfRule type="expression" dxfId="0" priority="6">
       <formula>$C4=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:J3">
-    <cfRule type="expression" dxfId="2" priority="65">
+    <cfRule type="expression" dxfId="3" priority="65">
       <formula>$C2=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:J16">
-    <cfRule type="expression" dxfId="1" priority="7">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>$C4=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$C31=5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Assets/06.Table/TowerTable4.xlsx
+++ b/Assets/06.Table/TowerTable4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DEBFF3-480D-4565-BF4C-E2481E793D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39A992C-C8F9-4875-9CB7-F96A11366ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable4" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -596,11 +596,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="3">
-        <f t="shared" ref="F52:F78" si="4">F51*4.5</f>
+        <f t="shared" ref="F52:F86" si="4">F51*4.5</f>
         <v>1.3606816861386447E+89</v>
       </c>
       <c r="G52" s="6">
@@ -3167,25 +3167,289 @@
         <v>6960</v>
       </c>
     </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" s="6">
+        <v>77</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D79" s="6">
+        <v>10500</v>
+      </c>
+      <c r="E79" s="6">
+        <v>1</v>
+      </c>
+      <c r="F79" s="3">
+        <f t="shared" si="4"/>
+        <v>2.9078987231846158E+106</v>
+      </c>
+      <c r="G79" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H79" s="6">
+        <v>8</v>
+      </c>
+      <c r="I79" s="6">
+        <v>0</v>
+      </c>
+      <c r="J79" s="6">
+        <v>7020</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" s="6">
+        <v>78</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D80" s="6">
+        <v>10600</v>
+      </c>
+      <c r="E80" s="6">
+        <v>1</v>
+      </c>
+      <c r="F80" s="3">
+        <f t="shared" si="4"/>
+        <v>1.3085544254330771E+107</v>
+      </c>
+      <c r="G80" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H80" s="6">
+        <v>8</v>
+      </c>
+      <c r="I80" s="6">
+        <v>0</v>
+      </c>
+      <c r="J80" s="6">
+        <v>7080</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" s="6">
+        <v>79</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D81" s="6">
+        <v>10700</v>
+      </c>
+      <c r="E81" s="6">
+        <v>1</v>
+      </c>
+      <c r="F81" s="3">
+        <f t="shared" si="4"/>
+        <v>5.8884949144488472E+107</v>
+      </c>
+      <c r="G81" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H81" s="6">
+        <v>8</v>
+      </c>
+      <c r="I81" s="6">
+        <v>0</v>
+      </c>
+      <c r="J81" s="6">
+        <v>7140</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" s="6">
+        <v>80</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D82" s="6">
+        <v>10800</v>
+      </c>
+      <c r="E82" s="6">
+        <v>1</v>
+      </c>
+      <c r="F82" s="3">
+        <f t="shared" si="4"/>
+        <v>2.6498227115019814E+108</v>
+      </c>
+      <c r="G82" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H82" s="6">
+        <v>8</v>
+      </c>
+      <c r="I82" s="6">
+        <v>0</v>
+      </c>
+      <c r="J82" s="6">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" s="6">
+        <v>81</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D83" s="6">
+        <v>10900</v>
+      </c>
+      <c r="E83" s="6">
+        <v>1</v>
+      </c>
+      <c r="F83" s="3">
+        <f t="shared" si="4"/>
+        <v>1.1924202201758916E+109</v>
+      </c>
+      <c r="G83" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H83" s="6">
+        <v>8</v>
+      </c>
+      <c r="I83" s="6">
+        <v>0</v>
+      </c>
+      <c r="J83" s="6">
+        <v>7260</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" s="6">
+        <v>82</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D84" s="6">
+        <v>11000</v>
+      </c>
+      <c r="E84" s="6">
+        <v>1</v>
+      </c>
+      <c r="F84" s="3">
+        <f t="shared" si="4"/>
+        <v>5.3658909907915123E+109</v>
+      </c>
+      <c r="G84" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H84" s="6">
+        <v>8</v>
+      </c>
+      <c r="I84" s="6">
+        <v>0</v>
+      </c>
+      <c r="J84" s="6">
+        <v>7320</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" s="6">
+        <v>83</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D85" s="6">
+        <v>11100</v>
+      </c>
+      <c r="E85" s="6">
+        <v>1</v>
+      </c>
+      <c r="F85" s="3">
+        <f t="shared" si="4"/>
+        <v>2.4146509458561804E+110</v>
+      </c>
+      <c r="G85" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H85" s="6">
+        <v>8</v>
+      </c>
+      <c r="I85" s="6">
+        <v>0</v>
+      </c>
+      <c r="J85" s="6">
+        <v>7380</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86" s="6">
+        <v>84</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D86" s="6">
+        <v>11200</v>
+      </c>
+      <c r="E86" s="6">
+        <v>1</v>
+      </c>
+      <c r="F86" s="3">
+        <f t="shared" si="4"/>
+        <v>1.0865929256352811E+111</v>
+      </c>
+      <c r="G86" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H86" s="6">
+        <v>8</v>
+      </c>
+      <c r="I86" s="6">
+        <v>0</v>
+      </c>
+      <c r="J86" s="6">
+        <v>7440</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E17:E78 G17:J78 F22:F78 A4:D78">
-    <cfRule type="expression" dxfId="0" priority="6">
+  <conditionalFormatting sqref="A4:D78 E17:E78 G17:J78 F22:F78 A79:J86">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>$C4=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:J3">
-    <cfRule type="expression" dxfId="3" priority="65">
+    <cfRule type="expression" dxfId="2" priority="65">
       <formula>$C2=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:J16">
-    <cfRule type="expression" dxfId="2" priority="7">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>$C4=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$C31=5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Assets/06.Table/TowerTable4.xlsx
+++ b/Assets/06.Table/TowerTable4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39A992C-C8F9-4875-9CB7-F96A11366ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780B7026-7B88-4F0C-8417-C148A30132DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable4" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,7 +197,29 @@
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -596,11 +618,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J86"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E85" sqref="E85"/>
+      <selection pane="bottomLeft" activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2293,7 +2315,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="3">
-        <f t="shared" ref="F52:F86" si="4">F51*4.5</f>
+        <f t="shared" ref="F52:F93" si="4">F51*4.5</f>
         <v>1.3606816861386447E+89</v>
       </c>
       <c r="G52" s="6">
@@ -3431,25 +3453,256 @@
         <v>7440</v>
       </c>
     </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87" s="6">
+        <v>85</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D87" s="6">
+        <v>11300</v>
+      </c>
+      <c r="E87" s="6">
+        <v>1</v>
+      </c>
+      <c r="F87" s="3">
+        <f t="shared" si="4"/>
+        <v>4.8896681653587645E+111</v>
+      </c>
+      <c r="G87" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H87" s="6">
+        <v>8</v>
+      </c>
+      <c r="I87" s="6">
+        <v>0</v>
+      </c>
+      <c r="J87" s="6">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88" s="6">
+        <v>86</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D88" s="6">
+        <v>11400</v>
+      </c>
+      <c r="E88" s="6">
+        <v>1</v>
+      </c>
+      <c r="F88" s="3">
+        <f t="shared" si="4"/>
+        <v>2.2003506744114441E+112</v>
+      </c>
+      <c r="G88" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H88" s="6">
+        <v>8</v>
+      </c>
+      <c r="I88" s="6">
+        <v>0</v>
+      </c>
+      <c r="J88" s="6">
+        <v>7560</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89" s="6">
+        <v>87</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D89" s="6">
+        <v>11500</v>
+      </c>
+      <c r="E89" s="6">
+        <v>1</v>
+      </c>
+      <c r="F89" s="3">
+        <f t="shared" si="4"/>
+        <v>9.9015780348514985E+112</v>
+      </c>
+      <c r="G89" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H89" s="6">
+        <v>8</v>
+      </c>
+      <c r="I89" s="6">
+        <v>0</v>
+      </c>
+      <c r="J89" s="6">
+        <v>7620</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90" s="6">
+        <v>88</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D90" s="6">
+        <v>11600</v>
+      </c>
+      <c r="E90" s="6">
+        <v>1</v>
+      </c>
+      <c r="F90" s="3">
+        <f t="shared" si="4"/>
+        <v>4.455710115683174E+113</v>
+      </c>
+      <c r="G90" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H90" s="6">
+        <v>8</v>
+      </c>
+      <c r="I90" s="6">
+        <v>0</v>
+      </c>
+      <c r="J90" s="6">
+        <v>7680</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91" s="6">
+        <v>89</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D91" s="6">
+        <v>11700</v>
+      </c>
+      <c r="E91" s="6">
+        <v>1</v>
+      </c>
+      <c r="F91" s="3">
+        <f t="shared" si="4"/>
+        <v>2.0050695520574284E+114</v>
+      </c>
+      <c r="G91" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H91" s="6">
+        <v>8</v>
+      </c>
+      <c r="I91" s="6">
+        <v>0</v>
+      </c>
+      <c r="J91" s="6">
+        <v>7740</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92" s="6">
+        <v>90</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D92" s="6">
+        <v>11800</v>
+      </c>
+      <c r="E92" s="6">
+        <v>1</v>
+      </c>
+      <c r="F92" s="3">
+        <f t="shared" si="4"/>
+        <v>9.0228129842584277E+114</v>
+      </c>
+      <c r="G92" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H92" s="6">
+        <v>8</v>
+      </c>
+      <c r="I92" s="6">
+        <v>0</v>
+      </c>
+      <c r="J92" s="6">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93" s="6">
+        <v>91</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D93" s="6">
+        <v>11900</v>
+      </c>
+      <c r="E93" s="6">
+        <v>1</v>
+      </c>
+      <c r="F93" s="3">
+        <f t="shared" si="4"/>
+        <v>4.0602658429162921E+115</v>
+      </c>
+      <c r="G93" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H93" s="6">
+        <v>8</v>
+      </c>
+      <c r="I93" s="6">
+        <v>0</v>
+      </c>
+      <c r="J93" s="6">
+        <v>7860</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A4:D78 E17:E78 G17:J78 F22:F78 A79:J86">
-    <cfRule type="expression" dxfId="3" priority="6">
+  <conditionalFormatting sqref="A4:D78 E17:E78 G17:J78 F22:F78 A79:J93">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>$C4=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:J3">
-    <cfRule type="expression" dxfId="2" priority="65">
+    <cfRule type="expression" dxfId="3" priority="65">
       <formula>$C2=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:J16">
-    <cfRule type="expression" dxfId="1" priority="7">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>$C4=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$C31=5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Assets/06.Table/TowerTable4.xlsx
+++ b/Assets/06.Table/TowerTable4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780B7026-7B88-4F0C-8417-C148A30132DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434A2DC8-58A9-42DC-826A-21A283AD4A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable4" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,29 +197,7 @@
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <b/>
@@ -618,11 +596,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J93"/>
+  <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G93" sqref="G93"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I97" sqref="I97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2315,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="3">
-        <f t="shared" ref="F52:F93" si="4">F51*4.5</f>
+        <f t="shared" ref="F52:F100" si="4">F51*4.5</f>
         <v>1.3606816861386447E+89</v>
       </c>
       <c r="G52" s="6">
@@ -3684,25 +3662,256 @@
         <v>7860</v>
       </c>
     </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94" s="6">
+        <v>92</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D94" s="6">
+        <v>12000</v>
+      </c>
+      <c r="E94" s="6">
+        <v>1</v>
+      </c>
+      <c r="F94" s="3">
+        <f t="shared" si="4"/>
+        <v>1.8271196293123316E+116</v>
+      </c>
+      <c r="G94" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H94" s="6">
+        <v>8</v>
+      </c>
+      <c r="I94" s="6">
+        <v>0</v>
+      </c>
+      <c r="J94" s="6">
+        <v>7920</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95" s="6">
+        <v>93</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D95" s="6">
+        <v>12100</v>
+      </c>
+      <c r="E95" s="6">
+        <v>1</v>
+      </c>
+      <c r="F95" s="3">
+        <f t="shared" si="4"/>
+        <v>8.2220383319054923E+116</v>
+      </c>
+      <c r="G95" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H95" s="6">
+        <v>8</v>
+      </c>
+      <c r="I95" s="6">
+        <v>0</v>
+      </c>
+      <c r="J95" s="6">
+        <v>7980</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A96" s="6">
+        <v>94</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D96" s="6">
+        <v>12200</v>
+      </c>
+      <c r="E96" s="6">
+        <v>1</v>
+      </c>
+      <c r="F96" s="3">
+        <f t="shared" si="4"/>
+        <v>3.6999172493574715E+117</v>
+      </c>
+      <c r="G96" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H96" s="6">
+        <v>8</v>
+      </c>
+      <c r="I96" s="6">
+        <v>0</v>
+      </c>
+      <c r="J96" s="6">
+        <v>8040</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A97" s="6">
+        <v>95</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D97" s="6">
+        <v>12300</v>
+      </c>
+      <c r="E97" s="6">
+        <v>1</v>
+      </c>
+      <c r="F97" s="3">
+        <f t="shared" si="4"/>
+        <v>1.6649627622108623E+118</v>
+      </c>
+      <c r="G97" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H97" s="6">
+        <v>8</v>
+      </c>
+      <c r="I97" s="6">
+        <v>0</v>
+      </c>
+      <c r="J97" s="6">
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A98" s="6">
+        <v>96</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D98" s="6">
+        <v>12400</v>
+      </c>
+      <c r="E98" s="6">
+        <v>1</v>
+      </c>
+      <c r="F98" s="3">
+        <f t="shared" si="4"/>
+        <v>7.4923324299488801E+118</v>
+      </c>
+      <c r="G98" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H98" s="6">
+        <v>8</v>
+      </c>
+      <c r="I98" s="6">
+        <v>0</v>
+      </c>
+      <c r="J98" s="6">
+        <v>8160</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A99" s="6">
+        <v>97</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D99" s="6">
+        <v>12500</v>
+      </c>
+      <c r="E99" s="6">
+        <v>1</v>
+      </c>
+      <c r="F99" s="3">
+        <f t="shared" si="4"/>
+        <v>3.3715495934769961E+119</v>
+      </c>
+      <c r="G99" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H99" s="6">
+        <v>8</v>
+      </c>
+      <c r="I99" s="6">
+        <v>0</v>
+      </c>
+      <c r="J99" s="6">
+        <v>8220</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A100" s="6">
+        <v>98</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C100" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D100" s="6">
+        <v>12600</v>
+      </c>
+      <c r="E100" s="6">
+        <v>1</v>
+      </c>
+      <c r="F100" s="3">
+        <f t="shared" si="4"/>
+        <v>1.5171973170646482E+120</v>
+      </c>
+      <c r="G100" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H100" s="6">
+        <v>8</v>
+      </c>
+      <c r="I100" s="6">
+        <v>0</v>
+      </c>
+      <c r="J100" s="6">
+        <v>8280</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A4:D78 E17:E78 G17:J78 F22:F78 A79:J93">
-    <cfRule type="expression" dxfId="4" priority="6">
+  <conditionalFormatting sqref="A4:D78 E17:E78 G17:J78 F22:F78 A79:J100">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>$C4=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:J3">
-    <cfRule type="expression" dxfId="3" priority="65">
+    <cfRule type="expression" dxfId="2" priority="65">
       <formula>$C2=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:J16">
-    <cfRule type="expression" dxfId="2" priority="7">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>$C4=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$C31=5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Assets/06.Table/TowerTable4.xlsx
+++ b/Assets/06.Table/TowerTable4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434A2DC8-58A9-42DC-826A-21A283AD4A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B07432-251D-41D8-9726-EB89E42BA042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -596,11 +596,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J100"/>
+  <dimension ref="A1:J112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I97" sqref="I97"/>
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A113" sqref="A113:XFD113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="3">
-        <f t="shared" ref="F52:F100" si="4">F51*4.5</f>
+        <f t="shared" ref="F52:F112" si="4">F51*4.5</f>
         <v>1.3606816861386447E+89</v>
       </c>
       <c r="G52" s="6">
@@ -3893,9 +3893,405 @@
         <v>8280</v>
       </c>
     </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A101" s="6">
+        <v>99</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C101" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D101" s="6">
+        <v>12700</v>
+      </c>
+      <c r="E101" s="6">
+        <v>1</v>
+      </c>
+      <c r="F101" s="3">
+        <f t="shared" si="4"/>
+        <v>6.8273879267909167E+120</v>
+      </c>
+      <c r="G101" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H101" s="6">
+        <v>8</v>
+      </c>
+      <c r="I101" s="6">
+        <v>0</v>
+      </c>
+      <c r="J101" s="6">
+        <v>8340</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A102" s="6">
+        <v>100</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C102" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D102" s="6">
+        <v>12800</v>
+      </c>
+      <c r="E102" s="6">
+        <v>1</v>
+      </c>
+      <c r="F102" s="3">
+        <f t="shared" si="4"/>
+        <v>3.0723245670559125E+121</v>
+      </c>
+      <c r="G102" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H102" s="6">
+        <v>8</v>
+      </c>
+      <c r="I102" s="6">
+        <v>0</v>
+      </c>
+      <c r="J102" s="6">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A103" s="6">
+        <v>101</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D103" s="6">
+        <v>12900</v>
+      </c>
+      <c r="E103" s="6">
+        <v>1</v>
+      </c>
+      <c r="F103" s="3">
+        <f t="shared" si="4"/>
+        <v>1.3825460551751606E+122</v>
+      </c>
+      <c r="G103" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H103" s="6">
+        <v>8</v>
+      </c>
+      <c r="I103" s="6">
+        <v>0</v>
+      </c>
+      <c r="J103" s="6">
+        <v>8460</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A104" s="6">
+        <v>102</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D104" s="6">
+        <v>13000</v>
+      </c>
+      <c r="E104" s="6">
+        <v>1</v>
+      </c>
+      <c r="F104" s="3">
+        <f t="shared" si="4"/>
+        <v>6.2214572482882223E+122</v>
+      </c>
+      <c r="G104" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H104" s="6">
+        <v>8</v>
+      </c>
+      <c r="I104" s="6">
+        <v>0</v>
+      </c>
+      <c r="J104" s="6">
+        <v>8520</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A105" s="6">
+        <v>103</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D105" s="6">
+        <v>13100</v>
+      </c>
+      <c r="E105" s="6">
+        <v>1</v>
+      </c>
+      <c r="F105" s="3">
+        <f t="shared" si="4"/>
+        <v>2.7996557617296998E+123</v>
+      </c>
+      <c r="G105" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H105" s="6">
+        <v>8</v>
+      </c>
+      <c r="I105" s="6">
+        <v>0</v>
+      </c>
+      <c r="J105" s="6">
+        <v>8580</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A106" s="6">
+        <v>104</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C106" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D106" s="6">
+        <v>13200</v>
+      </c>
+      <c r="E106" s="6">
+        <v>1</v>
+      </c>
+      <c r="F106" s="3">
+        <f t="shared" si="4"/>
+        <v>1.2598450927783648E+124</v>
+      </c>
+      <c r="G106" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H106" s="6">
+        <v>8</v>
+      </c>
+      <c r="I106" s="6">
+        <v>0</v>
+      </c>
+      <c r="J106" s="6">
+        <v>8640</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A107" s="6">
+        <v>105</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D107" s="6">
+        <v>13300</v>
+      </c>
+      <c r="E107" s="6">
+        <v>1</v>
+      </c>
+      <c r="F107" s="3">
+        <f t="shared" si="4"/>
+        <v>5.6693029175026411E+124</v>
+      </c>
+      <c r="G107" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H107" s="6">
+        <v>8</v>
+      </c>
+      <c r="I107" s="6">
+        <v>0</v>
+      </c>
+      <c r="J107" s="6">
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A108" s="6">
+        <v>106</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D108" s="6">
+        <v>13400</v>
+      </c>
+      <c r="E108" s="6">
+        <v>1</v>
+      </c>
+      <c r="F108" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5511863128761886E+125</v>
+      </c>
+      <c r="G108" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H108" s="6">
+        <v>8</v>
+      </c>
+      <c r="I108" s="6">
+        <v>0</v>
+      </c>
+      <c r="J108" s="6">
+        <v>8760</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A109" s="6">
+        <v>107</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D109" s="6">
+        <v>13500</v>
+      </c>
+      <c r="E109" s="6">
+        <v>1</v>
+      </c>
+      <c r="F109" s="3">
+        <f t="shared" si="4"/>
+        <v>1.1480338407942849E+126</v>
+      </c>
+      <c r="G109" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H109" s="6">
+        <v>8</v>
+      </c>
+      <c r="I109" s="6">
+        <v>0</v>
+      </c>
+      <c r="J109" s="6">
+        <v>8820</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A110" s="6">
+        <v>108</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D110" s="6">
+        <v>13600</v>
+      </c>
+      <c r="E110" s="6">
+        <v>1</v>
+      </c>
+      <c r="F110" s="3">
+        <f t="shared" si="4"/>
+        <v>5.166152283574282E+126</v>
+      </c>
+      <c r="G110" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H110" s="6">
+        <v>8</v>
+      </c>
+      <c r="I110" s="6">
+        <v>0</v>
+      </c>
+      <c r="J110" s="6">
+        <v>8880</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A111" s="6">
+        <v>109</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D111" s="6">
+        <v>13700</v>
+      </c>
+      <c r="E111" s="6">
+        <v>1</v>
+      </c>
+      <c r="F111" s="3">
+        <f t="shared" si="4"/>
+        <v>2.3247685276084269E+127</v>
+      </c>
+      <c r="G111" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H111" s="6">
+        <v>8</v>
+      </c>
+      <c r="I111" s="6">
+        <v>0</v>
+      </c>
+      <c r="J111" s="6">
+        <v>8940</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A112" s="6">
+        <v>110</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D112" s="6">
+        <v>13800</v>
+      </c>
+      <c r="E112" s="6">
+        <v>1</v>
+      </c>
+      <c r="F112" s="3">
+        <f t="shared" si="4"/>
+        <v>1.0461458374237922E+128</v>
+      </c>
+      <c r="G112" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H112" s="6">
+        <v>8</v>
+      </c>
+      <c r="I112" s="6">
+        <v>0</v>
+      </c>
+      <c r="J112" s="6">
+        <v>9000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A4:D78 E17:E78 G17:J78 F22:F78 A79:J100">
+  <conditionalFormatting sqref="A4:D78 E17:E78 G17:J78 F22:F78 A79:J112">
     <cfRule type="expression" dxfId="3" priority="6">
       <formula>$C4=5</formula>
     </cfRule>
